--- a/Data_frame/balancos_definitivos/CEBR3.xlsx
+++ b/Data_frame/balancos_definitivos/CEBR3.xlsx
@@ -894,31 +894,31 @@
         <v>2168132.096</v>
       </c>
       <c r="AY2" t="n">
-        <v>7613817.856</v>
+        <v>2220101.888</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8672665.6</v>
+        <v>1514386.048</v>
       </c>
       <c r="BA2" t="n">
-        <v>8256188.928</v>
+        <v>1476000</v>
       </c>
       <c r="BB2" t="n">
-        <v>9006089.216</v>
+        <v>1323218.944</v>
       </c>
       <c r="BC2" t="n">
-        <v>9014858.752</v>
+        <v>1349982.976</v>
       </c>
       <c r="BD2" t="n">
-        <v>9629593.6</v>
+        <v>1436827.008</v>
       </c>
       <c r="BE2" t="n">
-        <v>9037982.720000001</v>
+        <v>1471357.952</v>
       </c>
       <c r="BF2" t="n">
-        <v>8713350.143999999</v>
+        <v>1408557.056</v>
       </c>
       <c r="BG2" t="n">
-        <v>8752472.063999999</v>
+        <v>1462188.032</v>
       </c>
       <c r="BH2" t="n">
         <v>1415858.048</v>
@@ -1081,31 +1081,31 @@
         <v>1640361.984</v>
       </c>
       <c r="AY3" t="n">
-        <v>3084102.912</v>
+        <v>1677758.976</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3929398.016</v>
+        <v>959012.992</v>
       </c>
       <c r="BA3" t="n">
-        <v>3626437.888</v>
+        <v>910563.968</v>
       </c>
       <c r="BB3" t="n">
-        <v>4375225.856</v>
+        <v>687625.024</v>
       </c>
       <c r="BC3" t="n">
-        <v>4064336.896</v>
+        <v>696040</v>
       </c>
       <c r="BD3" t="n">
-        <v>4753223.168</v>
+        <v>817870.0159999999</v>
       </c>
       <c r="BE3" t="n">
-        <v>4311182.848</v>
+        <v>816273.024</v>
       </c>
       <c r="BF3" t="n">
-        <v>4077592.064</v>
+        <v>736222.0159999999</v>
       </c>
       <c r="BG3" t="n">
-        <v>4185968.896</v>
+        <v>768886.0159999999</v>
       </c>
       <c r="BH3" t="n">
         <v>785777.024</v>
@@ -1268,31 +1268,31 @@
         <v>1407268.992</v>
       </c>
       <c r="AY4" t="n">
-        <v>969382.0159999999</v>
+        <v>1495360</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1050251.008</v>
+        <v>714792</v>
       </c>
       <c r="BA4" t="n">
-        <v>660372.992</v>
+        <v>731102.0159999999</v>
       </c>
       <c r="BB4" t="n">
-        <v>1113575.04</v>
+        <v>504128</v>
       </c>
       <c r="BC4" t="n">
-        <v>1228216.064</v>
+        <v>514814.016</v>
       </c>
       <c r="BD4" t="n">
-        <v>1674091.008</v>
+        <v>739508.992</v>
       </c>
       <c r="BE4" t="n">
-        <v>1455993.984</v>
+        <v>710371.968</v>
       </c>
       <c r="BF4" t="n">
-        <v>960844.032</v>
+        <v>624622.0159999999</v>
       </c>
       <c r="BG4" t="n">
-        <v>1119607.04</v>
+        <v>675715.008</v>
       </c>
       <c r="BH4" t="n">
         <v>682918.0159999999</v>
@@ -1461,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>3978</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>4097</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>8464</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>8735</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>4393</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>4510</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
         <v>0</v>
@@ -1642,31 +1642,31 @@
         <v>38359</v>
       </c>
       <c r="AY6" t="n">
-        <v>873107.968</v>
+        <v>26458</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1145336.064</v>
+        <v>34095</v>
       </c>
       <c r="BA6" t="n">
-        <v>986769.024</v>
+        <v>39539</v>
       </c>
       <c r="BB6" t="n">
-        <v>1258395.008</v>
+        <v>35811</v>
       </c>
       <c r="BC6" t="n">
-        <v>1107378.048</v>
+        <v>41837</v>
       </c>
       <c r="BD6" t="n">
-        <v>1278205.952</v>
+        <v>34098</v>
       </c>
       <c r="BE6" t="n">
-        <v>846019.008</v>
+        <v>43018</v>
       </c>
       <c r="BF6" t="n">
-        <v>1091198.976</v>
+        <v>42250</v>
       </c>
       <c r="BG6" t="n">
-        <v>1009409.984</v>
+        <v>39682</v>
       </c>
       <c r="BH6" t="n">
         <v>44440</v>
@@ -1829,31 +1829,31 @@
         <v>6157</v>
       </c>
       <c r="AY7" t="n">
-        <v>882753.024</v>
+        <v>5094</v>
       </c>
       <c r="AZ7" t="n">
-        <v>849268.992</v>
+        <v>3324</v>
       </c>
       <c r="BA7" t="n">
-        <v>979769.9840000001</v>
+        <v>3575</v>
       </c>
       <c r="BB7" t="n">
-        <v>960940.992</v>
+        <v>3389</v>
       </c>
       <c r="BC7" t="n">
-        <v>974956.032</v>
+        <v>772</v>
       </c>
       <c r="BD7" t="n">
-        <v>852033.024</v>
+        <v>2808</v>
       </c>
       <c r="BE7" t="n">
-        <v>1001937.024</v>
+        <v>6600</v>
       </c>
       <c r="BF7" t="n">
-        <v>963921.9840000001</v>
+        <v>7141</v>
       </c>
       <c r="BG7" t="n">
-        <v>998035.008</v>
+        <v>5235</v>
       </c>
       <c r="BH7" t="n">
         <v>6244</v>
@@ -2203,31 +2203,31 @@
         <v>8860</v>
       </c>
       <c r="AY9" t="n">
-        <v>314880.992</v>
+        <v>11710</v>
       </c>
       <c r="AZ9" t="n">
-        <v>849155.008</v>
+        <v>14604</v>
       </c>
       <c r="BA9" t="n">
-        <v>936585.9840000001</v>
+        <v>18065</v>
       </c>
       <c r="BB9" t="n">
-        <v>959940.992</v>
+        <v>25991</v>
       </c>
       <c r="BC9" t="n">
-        <v>692907.008</v>
+        <v>28676</v>
       </c>
       <c r="BD9" t="n">
-        <v>899433.024</v>
+        <v>15930</v>
       </c>
       <c r="BE9" t="n">
-        <v>955977.9840000001</v>
+        <v>21577</v>
       </c>
       <c r="BF9" t="n">
-        <v>989740.032</v>
+        <v>30077</v>
       </c>
       <c r="BG9" t="n">
-        <v>992577.9840000001</v>
+        <v>37540</v>
       </c>
       <c r="BH9" t="n">
         <v>22963</v>
@@ -2577,31 +2577,31 @@
         <v>179716.992</v>
       </c>
       <c r="AY11" t="n">
-        <v>43979</v>
+        <v>139136.992</v>
       </c>
       <c r="AZ11" t="n">
-        <v>35387</v>
+        <v>192198</v>
       </c>
       <c r="BA11" t="n">
-        <v>58962</v>
+        <v>118283</v>
       </c>
       <c r="BB11" t="n">
-        <v>78277</v>
+        <v>118306</v>
       </c>
       <c r="BC11" t="n">
-        <v>52416</v>
+        <v>109941</v>
       </c>
       <c r="BD11" t="n">
-        <v>40725</v>
+        <v>25525</v>
       </c>
       <c r="BE11" t="n">
-        <v>46862</v>
+        <v>34706</v>
       </c>
       <c r="BF11" t="n">
-        <v>67377</v>
+        <v>32132</v>
       </c>
       <c r="BG11" t="n">
-        <v>66339</v>
+        <v>10714</v>
       </c>
       <c r="BH11" t="n">
         <v>29212</v>
@@ -2764,31 +2764,31 @@
         <v>19835</v>
       </c>
       <c r="AY12" t="n">
-        <v>1815943.936</v>
+        <v>20750</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1291014.016</v>
+        <v>19215</v>
       </c>
       <c r="BA12" t="n">
-        <v>1266450.944</v>
+        <v>19275</v>
       </c>
       <c r="BB12" t="n">
-        <v>1195732.992</v>
+        <v>19153</v>
       </c>
       <c r="BC12" t="n">
-        <v>1500840.96</v>
+        <v>20649</v>
       </c>
       <c r="BD12" t="n">
-        <v>1424313.984</v>
+        <v>29954</v>
       </c>
       <c r="BE12" t="n">
-        <v>1372251.008</v>
+        <v>33404</v>
       </c>
       <c r="BF12" t="n">
-        <v>1316221.056</v>
+        <v>32393</v>
       </c>
       <c r="BG12" t="n">
-        <v>1280786.944</v>
+        <v>32766</v>
       </c>
       <c r="BH12" t="n">
         <v>32033</v>
@@ -2951,19 +2951,19 @@
         <v>1797</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>1561</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7776</v>
+        <v>1582</v>
       </c>
       <c r="BA13" t="n">
-        <v>3978</v>
+        <v>1628</v>
       </c>
       <c r="BB13" t="n">
-        <v>4096</v>
+        <v>1660</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="BD13" t="n">
         <v>0</v>
@@ -4073,31 +4073,31 @@
         <v>876</v>
       </c>
       <c r="AY19" t="n">
-        <v>429099.008</v>
+        <v>1939</v>
       </c>
       <c r="AZ19" t="n">
-        <v>378803.008</v>
+        <v>709</v>
       </c>
       <c r="BA19" t="n">
-        <v>475718.016</v>
+        <v>721</v>
       </c>
       <c r="BB19" t="n">
-        <v>475547.008</v>
+        <v>911</v>
       </c>
       <c r="BC19" t="n">
-        <v>516758.016</v>
+        <v>742</v>
       </c>
       <c r="BD19" t="n">
-        <v>423048.992</v>
+        <v>963</v>
       </c>
       <c r="BE19" t="n">
-        <v>492460.992</v>
+        <v>805</v>
       </c>
       <c r="BF19" t="n">
-        <v>499463.008</v>
+        <v>805</v>
       </c>
       <c r="BG19" t="n">
-        <v>538161.024</v>
+        <v>816</v>
       </c>
       <c r="BH19" t="n">
         <v>1109</v>
@@ -4447,31 +4447,31 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
@@ -4634,31 +4634,31 @@
         <v>394321.984</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>408284</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>411292.992</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>423107.008</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>441017.984</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>460452.992</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>431511.008</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>441476.992</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>462652</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>486132.992</v>
       </c>
       <c r="BH22" t="n">
         <v>426348.992</v>
@@ -4821,31 +4821,31 @@
         <v>41503</v>
       </c>
       <c r="AY23" t="n">
-        <v>2311088.128</v>
+        <v>41927</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2476559.104</v>
+        <v>55196</v>
       </c>
       <c r="BA23" t="n">
-        <v>2397442.048</v>
+        <v>54805</v>
       </c>
       <c r="BB23" t="n">
-        <v>2450426.88</v>
+        <v>54342</v>
       </c>
       <c r="BC23" t="n">
-        <v>2449744.896</v>
+        <v>54204</v>
       </c>
       <c r="BD23" t="n">
-        <v>2430991.872</v>
+        <v>41482</v>
       </c>
       <c r="BE23" t="n">
-        <v>2343357.952</v>
+        <v>66497</v>
       </c>
       <c r="BF23" t="n">
-        <v>2324001.024</v>
+        <v>65804</v>
       </c>
       <c r="BG23" t="n">
-        <v>2308380.928</v>
+        <v>65135</v>
       </c>
       <c r="BH23" t="n">
         <v>64646</v>
@@ -5008,31 +5008,31 @@
         <v>72110</v>
       </c>
       <c r="AY24" t="n">
-        <v>402683.008</v>
+        <v>71382</v>
       </c>
       <c r="AZ24" t="n">
-        <v>975694.976</v>
+        <v>69669</v>
       </c>
       <c r="BA24" t="n">
-        <v>965857.9840000001</v>
+        <v>68249</v>
       </c>
       <c r="BB24" t="n">
-        <v>984702.976</v>
+        <v>121081</v>
       </c>
       <c r="BC24" t="n">
-        <v>999936</v>
+        <v>118637</v>
       </c>
       <c r="BD24" t="n">
-        <v>1021065.024</v>
+        <v>116010</v>
       </c>
       <c r="BE24" t="n">
-        <v>1011190.976</v>
+        <v>113707</v>
       </c>
       <c r="BF24" t="n">
-        <v>995536</v>
+        <v>111486</v>
       </c>
       <c r="BG24" t="n">
-        <v>977334.976</v>
+        <v>109268</v>
       </c>
       <c r="BH24" t="n">
         <v>107053</v>
@@ -5382,31 +5382,31 @@
         <v>2168132.096</v>
       </c>
       <c r="AY26" t="n">
-        <v>7613817.856</v>
+        <v>2220101.888</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8672665.6</v>
+        <v>1514386.048</v>
       </c>
       <c r="BA26" t="n">
-        <v>8256188.928</v>
+        <v>1476000</v>
       </c>
       <c r="BB26" t="n">
-        <v>9006089.216</v>
+        <v>1323218.944</v>
       </c>
       <c r="BC26" t="n">
-        <v>9014858.752</v>
+        <v>1349982.976</v>
       </c>
       <c r="BD26" t="n">
-        <v>9629593.6</v>
+        <v>1436827.008</v>
       </c>
       <c r="BE26" t="n">
-        <v>9037982.720000001</v>
+        <v>1471357.952</v>
       </c>
       <c r="BF26" t="n">
-        <v>8713350.143999999</v>
+        <v>1408557.056</v>
       </c>
       <c r="BG26" t="n">
-        <v>8752472.063999999</v>
+        <v>1462188.032</v>
       </c>
       <c r="BH26" t="n">
         <v>1415858.048</v>
@@ -5569,31 +5569,31 @@
         <v>63797</v>
       </c>
       <c r="AY27" t="n">
-        <v>1901385.984</v>
+        <v>76113</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2415055.104</v>
+        <v>441502.016</v>
       </c>
       <c r="BA27" t="n">
-        <v>2381594.112</v>
+        <v>348848</v>
       </c>
       <c r="BB27" t="n">
-        <v>3182359.04</v>
+        <v>93577</v>
       </c>
       <c r="BC27" t="n">
-        <v>3240892.928</v>
+        <v>100891</v>
       </c>
       <c r="BD27" t="n">
-        <v>3679730.944</v>
+        <v>177012.992</v>
       </c>
       <c r="BE27" t="n">
-        <v>2769953.024</v>
+        <v>145147.008</v>
       </c>
       <c r="BF27" t="n">
-        <v>2494216.96</v>
+        <v>128663</v>
       </c>
       <c r="BG27" t="n">
-        <v>2628431.104</v>
+        <v>126226</v>
       </c>
       <c r="BH27" t="n">
         <v>112807</v>
@@ -5756,31 +5756,31 @@
         <v>1916</v>
       </c>
       <c r="AY28" t="n">
-        <v>158640</v>
+        <v>2240</v>
       </c>
       <c r="AZ28" t="n">
-        <v>155470</v>
+        <v>1356</v>
       </c>
       <c r="BA28" t="n">
-        <v>160656</v>
+        <v>1910</v>
       </c>
       <c r="BB28" t="n">
-        <v>127233</v>
+        <v>2868</v>
       </c>
       <c r="BC28" t="n">
-        <v>141383.008</v>
+        <v>3321</v>
       </c>
       <c r="BD28" t="n">
-        <v>198732</v>
+        <v>4737</v>
       </c>
       <c r="BE28" t="n">
-        <v>204702</v>
+        <v>5288</v>
       </c>
       <c r="BF28" t="n">
-        <v>183108</v>
+        <v>4418</v>
       </c>
       <c r="BG28" t="n">
-        <v>201176.992</v>
+        <v>6047</v>
       </c>
       <c r="BH28" t="n">
         <v>5629</v>
@@ -5943,31 +5943,31 @@
         <v>8469</v>
       </c>
       <c r="AY29" t="n">
-        <v>1061688</v>
+        <v>13860</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1400736</v>
+        <v>22538</v>
       </c>
       <c r="BA29" t="n">
-        <v>1291227.008</v>
+        <v>21611</v>
       </c>
       <c r="BB29" t="n">
-        <v>1458552.064</v>
+        <v>22730</v>
       </c>
       <c r="BC29" t="n">
-        <v>1427992.064</v>
+        <v>17047</v>
       </c>
       <c r="BD29" t="n">
-        <v>1864653.056</v>
+        <v>24986</v>
       </c>
       <c r="BE29" t="n">
-        <v>1041158.976</v>
+        <v>15274</v>
       </c>
       <c r="BF29" t="n">
-        <v>1232114.048</v>
+        <v>10802</v>
       </c>
       <c r="BG29" t="n">
-        <v>1238450.944</v>
+        <v>8875</v>
       </c>
       <c r="BH29" t="n">
         <v>20552</v>
@@ -6130,31 +6130,31 @@
         <v>32744</v>
       </c>
       <c r="AY30" t="n">
-        <v>51761</v>
+        <v>39460</v>
       </c>
       <c r="AZ30" t="n">
-        <v>176103.008</v>
+        <v>42445</v>
       </c>
       <c r="BA30" t="n">
-        <v>91235</v>
+        <v>24830</v>
       </c>
       <c r="BB30" t="n">
-        <v>90245</v>
+        <v>37402</v>
       </c>
       <c r="BC30" t="n">
-        <v>61316</v>
+        <v>51203</v>
       </c>
       <c r="BD30" t="n">
-        <v>248040.992</v>
+        <v>52279</v>
       </c>
       <c r="BE30" t="n">
-        <v>49793</v>
+        <v>25807</v>
       </c>
       <c r="BF30" t="n">
-        <v>105011</v>
+        <v>42609</v>
       </c>
       <c r="BG30" t="n">
-        <v>56851</v>
+        <v>59676</v>
       </c>
       <c r="BH30" t="n">
         <v>50031</v>
@@ -6317,31 +6317,31 @@
         <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>105901</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>121178</v>
+        <v>0</v>
       </c>
       <c r="BA31" t="n">
-        <v>195286</v>
+        <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>916603.008</v>
+        <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>977683.008</v>
+        <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>746014.976</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>836673.9840000001</v>
+        <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>416252</v>
+        <v>0</v>
       </c>
       <c r="BG31" t="n">
-        <v>507665.984</v>
+        <v>0</v>
       </c>
       <c r="BH31" t="n">
         <v>0</v>
@@ -6504,31 +6504,31 @@
         <v>0</v>
       </c>
       <c r="AY32" t="n">
-        <v>34177</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>59016</v>
+        <v>0</v>
       </c>
       <c r="BA32" t="n">
-        <v>100917</v>
+        <v>0</v>
       </c>
       <c r="BB32" t="n">
-        <v>42443</v>
+        <v>0</v>
       </c>
       <c r="BC32" t="n">
-        <v>65637</v>
+        <v>0</v>
       </c>
       <c r="BD32" t="n">
-        <v>43592</v>
+        <v>0</v>
       </c>
       <c r="BE32" t="n">
-        <v>96924</v>
+        <v>0</v>
       </c>
       <c r="BF32" t="n">
-        <v>30722</v>
+        <v>0</v>
       </c>
       <c r="BG32" t="n">
-        <v>76931</v>
+        <v>0</v>
       </c>
       <c r="BH32" t="n">
         <v>0</v>
@@ -6691,31 +6691,31 @@
         <v>9877</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>11591</v>
       </c>
       <c r="AZ33" t="n">
-        <v>1</v>
+        <v>288806.016</v>
       </c>
       <c r="BA33" t="n">
-        <v>1</v>
+        <v>288503.008</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>20168</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>18051</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>83864</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>86957</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>59897</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>39826</v>
       </c>
       <c r="BH33" t="n">
         <v>26757</v>
@@ -6878,31 +6878,31 @@
         <v>7353</v>
       </c>
       <c r="AY34" t="n">
-        <v>489219.008</v>
+        <v>6724</v>
       </c>
       <c r="AZ34" t="n">
-        <v>502551</v>
+        <v>84874.97600000002</v>
       </c>
       <c r="BA34" t="n">
-        <v>542272.024</v>
+        <v>10512</v>
       </c>
       <c r="BB34" t="n">
-        <v>547283.008</v>
+        <v>10065</v>
       </c>
       <c r="BC34" t="n">
-        <v>566881.9840000001</v>
+        <v>10958</v>
       </c>
       <c r="BD34" t="n">
-        <v>578697.9840000001</v>
+        <v>10800</v>
       </c>
       <c r="BE34" t="n">
-        <v>540700.992</v>
+        <v>11474</v>
       </c>
       <c r="BF34" t="n">
-        <v>527009.9840000001</v>
+        <v>10590</v>
       </c>
       <c r="BG34" t="n">
-        <v>547355.008</v>
+        <v>11455</v>
       </c>
       <c r="BH34" t="n">
         <v>9475</v>
@@ -7065,31 +7065,31 @@
         <v>3438</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>2238</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>1482</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>1482</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="BG35" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="BH35" t="n">
         <v>363</v>
@@ -7439,31 +7439,31 @@
         <v>12620</v>
       </c>
       <c r="AY37" t="n">
-        <v>2871225.088</v>
+        <v>14246</v>
       </c>
       <c r="AZ37" t="n">
-        <v>3262601.984</v>
+        <v>14663</v>
       </c>
       <c r="BA37" t="n">
-        <v>3048648.96</v>
+        <v>14626</v>
       </c>
       <c r="BB37" t="n">
-        <v>2979101.952</v>
+        <v>31614</v>
       </c>
       <c r="BC37" t="n">
-        <v>2988093.952</v>
+        <v>32472</v>
       </c>
       <c r="BD37" t="n">
-        <v>2949667.072</v>
+        <v>32857</v>
       </c>
       <c r="BE37" t="n">
-        <v>3396870.912</v>
+        <v>34413</v>
       </c>
       <c r="BF37" t="n">
-        <v>3340932.096</v>
+        <v>33023</v>
       </c>
       <c r="BG37" t="n">
-        <v>3281338.112</v>
+        <v>33623</v>
       </c>
       <c r="BH37" t="n">
         <v>34013</v>
@@ -7626,31 +7626,31 @@
         <v>0</v>
       </c>
       <c r="AY38" t="n">
-        <v>1268824.96</v>
+        <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1253648</v>
+        <v>0</v>
       </c>
       <c r="BA38" t="n">
-        <v>1514958.976</v>
+        <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>1423975.04</v>
+        <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>1404366.976</v>
+        <v>0</v>
       </c>
       <c r="BD38" t="n">
-        <v>1404817.024</v>
+        <v>0</v>
       </c>
       <c r="BE38" t="n">
-        <v>1385351.936</v>
+        <v>0</v>
       </c>
       <c r="BF38" t="n">
-        <v>1294508.032</v>
+        <v>0</v>
       </c>
       <c r="BG38" t="n">
-        <v>1215467.008</v>
+        <v>0</v>
       </c>
       <c r="BH38" t="n">
         <v>0</v>
@@ -8000,31 +8000,31 @@
         <v>545</v>
       </c>
       <c r="AY40" t="n">
-        <v>1405273.984</v>
+        <v>971</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1839427.968</v>
+        <v>937</v>
       </c>
       <c r="BA40" t="n">
-        <v>1359408</v>
+        <v>904</v>
       </c>
       <c r="BB40" t="n">
-        <v>1382850.944</v>
+        <v>927</v>
       </c>
       <c r="BC40" t="n">
-        <v>1405294.976</v>
+        <v>1001</v>
       </c>
       <c r="BD40" t="n">
-        <v>1362002.944</v>
+        <v>992</v>
       </c>
       <c r="BE40" t="n">
-        <v>1821368.064</v>
+        <v>1046</v>
       </c>
       <c r="BF40" t="n">
-        <v>1850787.968</v>
+        <v>743</v>
       </c>
       <c r="BG40" t="n">
-        <v>1882802.048</v>
+        <v>805</v>
       </c>
       <c r="BH40" t="n">
         <v>722</v>
@@ -8187,31 +8187,31 @@
         <v>3669</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0</v>
+        <v>4119</v>
       </c>
       <c r="BA41" t="n">
-        <v>0</v>
+        <v>4115</v>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>21049</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>21682</v>
       </c>
       <c r="BD41" t="n">
-        <v>0</v>
+        <v>21984</v>
       </c>
       <c r="BE41" t="n">
-        <v>0</v>
+        <v>23486</v>
       </c>
       <c r="BF41" t="n">
-        <v>0</v>
+        <v>23560</v>
       </c>
       <c r="BG41" t="n">
-        <v>0</v>
+        <v>23476</v>
       </c>
       <c r="BH41" t="n">
         <v>23100</v>
@@ -8561,31 +8561,31 @@
         <v>8406</v>
       </c>
       <c r="AY43" t="n">
-        <v>197126</v>
+        <v>9606</v>
       </c>
       <c r="AZ43" t="n">
-        <v>169526</v>
+        <v>9607</v>
       </c>
       <c r="BA43" t="n">
-        <v>174282</v>
+        <v>9607</v>
       </c>
       <c r="BB43" t="n">
-        <v>172276</v>
+        <v>9638</v>
       </c>
       <c r="BC43" t="n">
-        <v>178432</v>
+        <v>9789</v>
       </c>
       <c r="BD43" t="n">
-        <v>182847.008</v>
+        <v>9881</v>
       </c>
       <c r="BE43" t="n">
-        <v>190151.008</v>
+        <v>9881</v>
       </c>
       <c r="BF43" t="n">
-        <v>195636</v>
+        <v>8720</v>
       </c>
       <c r="BG43" t="n">
-        <v>183068.992</v>
+        <v>9342</v>
       </c>
       <c r="BH43" t="n">
         <v>10191</v>
@@ -9122,31 +9122,31 @@
         <v>219184.992</v>
       </c>
       <c r="AY46" t="n">
-        <v>2</v>
+        <v>225928</v>
       </c>
       <c r="AZ46" t="n">
-        <v>3</v>
+        <v>229219.008</v>
       </c>
       <c r="BA46" t="n">
-        <v>-3</v>
+        <v>244480</v>
       </c>
       <c r="BB46" t="n">
-        <v>0</v>
+        <v>269457.984</v>
       </c>
       <c r="BC46" t="n">
-        <v>3</v>
+        <v>254064</v>
       </c>
       <c r="BD46" t="n">
-        <v>1</v>
+        <v>249860.992</v>
       </c>
       <c r="BE46" t="n">
-        <v>-1</v>
+        <v>262328</v>
       </c>
       <c r="BF46" t="n">
-        <v>-1</v>
+        <v>243408</v>
       </c>
       <c r="BG46" t="n">
-        <v>11</v>
+        <v>256884</v>
       </c>
       <c r="BH46" t="n">
         <v>260698</v>
@@ -9309,31 +9309,31 @@
         <v>1872529.952</v>
       </c>
       <c r="AY47" t="n">
-        <v>2841205.04</v>
+        <v>1903814.976</v>
       </c>
       <c r="AZ47" t="n">
-        <v>2995006.024</v>
+        <v>829001.9840000001</v>
       </c>
       <c r="BA47" t="n">
-        <v>2825949.112</v>
+        <v>868045.952</v>
       </c>
       <c r="BB47" t="n">
-        <v>2844627.968</v>
+        <v>928570.048</v>
       </c>
       <c r="BC47" t="n">
-        <v>2785868.872</v>
+        <v>962556.0319999999</v>
       </c>
       <c r="BD47" t="n">
-        <v>3000195.096</v>
+        <v>977096.0640000001</v>
       </c>
       <c r="BE47" t="n">
-        <v>2871160.04</v>
+        <v>1029470.016</v>
       </c>
       <c r="BF47" t="n">
-        <v>2878202.088</v>
+        <v>1003463.04</v>
       </c>
       <c r="BG47" t="n">
-        <v>2842692.104</v>
+        <v>1045454.944</v>
       </c>
       <c r="BH47" t="n">
         <v>1008339.952</v>
@@ -9496,31 +9496,31 @@
         <v>566025.024</v>
       </c>
       <c r="AY48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BA48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BB48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BC48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BD48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BE48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BF48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BG48" t="n">
-        <v>1847176.96</v>
+        <v>566025.024</v>
       </c>
       <c r="BH48" t="n">
         <v>566025.024</v>
@@ -9683,31 +9683,31 @@
         <v>0</v>
       </c>
       <c r="AY49" t="n">
-        <v>25590</v>
+        <v>0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>26499</v>
+        <v>0</v>
       </c>
       <c r="BA49" t="n">
-        <v>28899</v>
+        <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>29481</v>
+        <v>0</v>
       </c>
       <c r="BC49" t="n">
-        <v>29587</v>
+        <v>0</v>
       </c>
       <c r="BD49" t="n">
-        <v>30863</v>
+        <v>0</v>
       </c>
       <c r="BE49" t="n">
-        <v>31228</v>
+        <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>33566</v>
+        <v>0</v>
       </c>
       <c r="BG49" t="n">
-        <v>37788</v>
+        <v>0</v>
       </c>
       <c r="BH49" t="n">
         <v>0</v>
@@ -10057,31 +10057,31 @@
         <v>137724</v>
       </c>
       <c r="AY51" t="n">
-        <v>800268.992</v>
+        <v>137724</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1121577.984</v>
+        <v>235448.992</v>
       </c>
       <c r="BA51" t="n">
-        <v>1121577.984</v>
+        <v>235448.992</v>
       </c>
       <c r="BB51" t="n">
-        <v>1121577.984</v>
+        <v>235448.992</v>
       </c>
       <c r="BC51" t="n">
-        <v>1121577.984</v>
+        <v>235448.992</v>
       </c>
       <c r="BD51" t="n">
-        <v>1122408.96</v>
+        <v>385159.008</v>
       </c>
       <c r="BE51" t="n">
-        <v>1122408.96</v>
+        <v>385159.008</v>
       </c>
       <c r="BF51" t="n">
-        <v>1122408.96</v>
+        <v>319876</v>
       </c>
       <c r="BG51" t="n">
-        <v>1122408.96</v>
+        <v>319876</v>
       </c>
       <c r="BH51" t="n">
         <v>416316.992</v>
@@ -10244,31 +10244,31 @@
         <v>1141220.992</v>
       </c>
       <c r="AY52" t="n">
-        <v>166896.992</v>
+        <v>1172505.984</v>
       </c>
       <c r="AZ52" t="n">
         <v>0</v>
       </c>
       <c r="BA52" t="n">
-        <v>-152724</v>
+        <v>39044</v>
       </c>
       <c r="BB52" t="n">
-        <v>-150628</v>
+        <v>99568</v>
       </c>
       <c r="BC52" t="n">
-        <v>-212024</v>
+        <v>133548</v>
       </c>
       <c r="BD52" t="n">
         <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>-126345</v>
+        <v>52376</v>
       </c>
       <c r="BF52" t="n">
-        <v>-122121</v>
+        <v>91652</v>
       </c>
       <c r="BG52" t="n">
-        <v>-166355.008</v>
+        <v>133633</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
@@ -10431,31 +10431,31 @@
         <v>27560</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>27560</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>27528</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>27528</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>27528</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>27534</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>25912</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>25910</v>
       </c>
       <c r="BF53" t="n">
-        <v>0</v>
+        <v>25910</v>
       </c>
       <c r="BG53" t="n">
-        <v>0</v>
+        <v>25921</v>
       </c>
       <c r="BH53" t="n">
         <v>25998</v>
@@ -10805,31 +10805,31 @@
         <v>0</v>
       </c>
       <c r="AY55" t="n">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="AZ55" t="n">
-        <v>-248</v>
+        <v>0</v>
       </c>
       <c r="BA55" t="n">
-        <v>-18981</v>
+        <v>0</v>
       </c>
       <c r="BB55" t="n">
-        <v>-2980</v>
+        <v>0</v>
       </c>
       <c r="BC55" t="n">
-        <v>-449</v>
+        <v>0</v>
       </c>
       <c r="BD55" t="n">
-        <v>-254</v>
+        <v>0</v>
       </c>
       <c r="BE55" t="n">
-        <v>-3309</v>
+        <v>0</v>
       </c>
       <c r="BF55" t="n">
-        <v>-2829</v>
+        <v>0</v>
       </c>
       <c r="BG55" t="n">
-        <v>1673</v>
+        <v>0</v>
       </c>
       <c r="BH55" t="n">
         <v>0</v>
@@ -11333,31 +11333,31 @@
         <v>75042</v>
       </c>
       <c r="AY59" t="n">
-        <v>1339405.952</v>
+        <v>101601</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1862133.248</v>
+        <v>80213</v>
       </c>
       <c r="BA59" t="n">
-        <v>1197024</v>
+        <v>133104</v>
       </c>
       <c r="BB59" t="n">
-        <v>1630240</v>
+        <v>80425</v>
       </c>
       <c r="BC59" t="n">
-        <v>1407539.968</v>
+        <v>28474.992</v>
       </c>
       <c r="BD59" t="n">
-        <v>1948745.984</v>
+        <v>92560</v>
       </c>
       <c r="BE59" t="n">
-        <v>1240577.024</v>
+        <v>82536</v>
       </c>
       <c r="BF59" t="n">
-        <v>1642961.024</v>
+        <v>85877</v>
       </c>
       <c r="BG59" t="n">
-        <v>1542675.968</v>
+        <v>91598.008</v>
       </c>
       <c r="BH59" t="n">
         <v>95002</v>
@@ -11520,31 +11520,31 @@
         <v>-27594</v>
       </c>
       <c r="AY60" t="n">
-        <v>-740068.992</v>
+        <v>-51131</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-963595.1360000001</v>
+        <v>-35609</v>
       </c>
       <c r="BA60" t="n">
-        <v>-629604.992</v>
+        <v>-33794</v>
       </c>
       <c r="BB60" t="n">
-        <v>-793784</v>
+        <v>-35901</v>
       </c>
       <c r="BC60" t="n">
-        <v>-713691.008</v>
+        <v>-42708</v>
       </c>
       <c r="BD60" t="n">
-        <v>-940361.024</v>
+        <v>-39440</v>
       </c>
       <c r="BE60" t="n">
-        <v>-616056</v>
+        <v>-42549</v>
       </c>
       <c r="BF60" t="n">
-        <v>-763620.992</v>
+        <v>-40931</v>
       </c>
       <c r="BG60" t="n">
-        <v>-745433.024</v>
+        <v>-46920.992</v>
       </c>
       <c r="BH60" t="n">
         <v>-44320</v>
@@ -11707,31 +11707,31 @@
         <v>47448</v>
       </c>
       <c r="AY61" t="n">
-        <v>599337.024</v>
+        <v>50470</v>
       </c>
       <c r="AZ61" t="n">
-        <v>898537.92</v>
+        <v>44604</v>
       </c>
       <c r="BA61" t="n">
-        <v>567419.008</v>
+        <v>99310</v>
       </c>
       <c r="BB61" t="n">
-        <v>836456</v>
+        <v>44524</v>
       </c>
       <c r="BC61" t="n">
-        <v>693849.024</v>
+        <v>-14233.008</v>
       </c>
       <c r="BD61" t="n">
-        <v>1008384.896</v>
+        <v>53120</v>
       </c>
       <c r="BE61" t="n">
-        <v>624521.024</v>
+        <v>39987</v>
       </c>
       <c r="BF61" t="n">
-        <v>879340.032</v>
+        <v>44946</v>
       </c>
       <c r="BG61" t="n">
-        <v>797243.008</v>
+        <v>44677</v>
       </c>
       <c r="BH61" t="n">
         <v>50682</v>
@@ -11894,31 +11894,31 @@
         <v>-61</v>
       </c>
       <c r="AY62" t="n">
-        <v>-517232</v>
+        <v>846</v>
       </c>
       <c r="AZ62" t="n">
-        <v>-603220.992</v>
+        <v>399</v>
       </c>
       <c r="BA62" t="n">
-        <v>-559936</v>
+        <v>351</v>
       </c>
       <c r="BB62" t="n">
-        <v>-585481.024</v>
+        <v>-2239</v>
       </c>
       <c r="BC62" t="n">
-        <v>-552734.976</v>
+        <v>1489</v>
       </c>
       <c r="BD62" t="n">
-        <v>-562113.9840000001</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
-        <v>-509023.008</v>
+        <v>0</v>
       </c>
       <c r="BF62" t="n">
-        <v>-528003.008</v>
+        <v>0</v>
       </c>
       <c r="BG62" t="n">
-        <v>-525951.008</v>
+        <v>0</v>
       </c>
       <c r="BH62" t="n">
         <v>0</v>
@@ -12081,31 +12081,31 @@
         <v>-10920</v>
       </c>
       <c r="AY63" t="n">
-        <v>-136083.008</v>
+        <v>-14901</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-142040.992</v>
+        <v>-12681</v>
       </c>
       <c r="BA63" t="n">
-        <v>-175828</v>
+        <v>-15927</v>
       </c>
       <c r="BB63" t="n">
-        <v>-163228</v>
+        <v>-13068</v>
       </c>
       <c r="BC63" t="n">
-        <v>-160120.992</v>
+        <v>-13525</v>
       </c>
       <c r="BD63" t="n">
-        <v>-183469.024</v>
+        <v>-13686</v>
       </c>
       <c r="BE63" t="n">
-        <v>-170160</v>
+        <v>-11207</v>
       </c>
       <c r="BF63" t="n">
-        <v>-196112.992</v>
+        <v>-15227</v>
       </c>
       <c r="BG63" t="n">
-        <v>-193567.008</v>
+        <v>-15981</v>
       </c>
       <c r="BH63" t="n">
         <v>-14293</v>
@@ -12443,31 +12443,31 @@
         <v>1162</v>
       </c>
       <c r="AY65" t="n">
-        <v>17174</v>
+        <v>8023.064</v>
       </c>
       <c r="AZ65" t="n">
-        <v>37123.984</v>
+        <v>1220</v>
       </c>
       <c r="BA65" t="n">
-        <v>10197</v>
+        <v>3174</v>
       </c>
       <c r="BB65" t="n">
-        <v>22167</v>
+        <v>2177</v>
       </c>
       <c r="BC65" t="n">
-        <v>47210</v>
+        <v>81344</v>
       </c>
       <c r="BD65" t="n">
-        <v>126948</v>
+        <v>3247</v>
       </c>
       <c r="BE65" t="n">
-        <v>8019</v>
+        <v>1610</v>
       </c>
       <c r="BF65" t="n">
-        <v>10153</v>
+        <v>5097</v>
       </c>
       <c r="BG65" t="n">
-        <v>23718</v>
+        <v>-2211</v>
       </c>
       <c r="BH65" t="n">
         <v>2322</v>
@@ -12630,31 +12630,31 @@
         <v>-8208</v>
       </c>
       <c r="AY66" t="n">
-        <v>-3815</v>
+        <v>1166</v>
       </c>
       <c r="AZ66" t="n">
-        <v>26370</v>
+        <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>-12795</v>
+        <v>-34</v>
       </c>
       <c r="BB66" t="n">
-        <v>-20655</v>
+        <v>-428</v>
       </c>
       <c r="BC66" t="n">
-        <v>-30565</v>
+        <v>-2414</v>
       </c>
       <c r="BD66" t="n">
-        <v>-37524</v>
+        <v>-1038</v>
       </c>
       <c r="BE66" t="n">
-        <v>-46552</v>
+        <v>-64</v>
       </c>
       <c r="BF66" t="n">
-        <v>-63446</v>
+        <v>-3537</v>
       </c>
       <c r="BG66" t="n">
-        <v>-73257</v>
+        <v>4307</v>
       </c>
       <c r="BH66" t="n">
         <v>-1126</v>
@@ -12817,31 +12817,31 @@
         <v>3359</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>22392</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>17222</v>
       </c>
       <c r="BA67" t="n">
-        <v>0</v>
+        <v>18431</v>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>19416</v>
       </c>
       <c r="BC67" t="n">
-        <v>0</v>
+        <v>25267</v>
       </c>
       <c r="BD67" t="n">
-        <v>0</v>
+        <v>18832</v>
       </c>
       <c r="BE67" t="n">
-        <v>0</v>
+        <v>21299</v>
       </c>
       <c r="BF67" t="n">
-        <v>0</v>
+        <v>23470</v>
       </c>
       <c r="BG67" t="n">
-        <v>0</v>
+        <v>24666</v>
       </c>
       <c r="BH67" t="n">
         <v>18421</v>
@@ -13004,31 +13004,31 @@
         <v>14106</v>
       </c>
       <c r="AY68" t="n">
-        <v>-41787</v>
+        <v>15841</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-30374</v>
+        <v>19666</v>
       </c>
       <c r="BA68" t="n">
-        <v>-68568</v>
+        <v>21406</v>
       </c>
       <c r="BB68" t="n">
-        <v>-95620</v>
+        <v>17138</v>
       </c>
       <c r="BC68" t="n">
-        <v>-101541</v>
+        <v>22279</v>
       </c>
       <c r="BD68" t="n">
-        <v>-45727</v>
+        <v>27570</v>
       </c>
       <c r="BE68" t="n">
-        <v>-100980</v>
+        <v>20798</v>
       </c>
       <c r="BF68" t="n">
-        <v>-104599</v>
+        <v>21199</v>
       </c>
       <c r="BG68" t="n">
-        <v>-110925</v>
+        <v>19199</v>
       </c>
       <c r="BH68" t="n">
         <v>20067</v>
@@ -13191,31 +13191,31 @@
         <v>14378</v>
       </c>
       <c r="AY69" t="n">
-        <v>33558</v>
+        <v>16419</v>
       </c>
       <c r="AZ69" t="n">
-        <v>52539.992</v>
+        <v>19969</v>
       </c>
       <c r="BA69" t="n">
-        <v>41764</v>
+        <v>21740</v>
       </c>
       <c r="BB69" t="n">
-        <v>51706</v>
+        <v>17507</v>
       </c>
       <c r="BC69" t="n">
-        <v>73959</v>
+        <v>22602</v>
       </c>
       <c r="BD69" t="n">
-        <v>122454.008</v>
+        <v>27997</v>
       </c>
       <c r="BE69" t="n">
-        <v>68626</v>
+        <v>21153</v>
       </c>
       <c r="BF69" t="n">
-        <v>47091</v>
+        <v>21547</v>
       </c>
       <c r="BG69" t="n">
-        <v>50634</v>
+        <v>20313</v>
       </c>
       <c r="BH69" t="n">
         <v>20231</v>
@@ -13378,31 +13378,31 @@
         <v>-272</v>
       </c>
       <c r="AY70" t="n">
-        <v>-75345</v>
+        <v>-578</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-82914</v>
+        <v>-303</v>
       </c>
       <c r="BA70" t="n">
-        <v>-110332</v>
+        <v>-334</v>
       </c>
       <c r="BB70" t="n">
-        <v>-147326</v>
+        <v>-369</v>
       </c>
       <c r="BC70" t="n">
-        <v>-175500</v>
+        <v>-323</v>
       </c>
       <c r="BD70" t="n">
-        <v>-168181.008</v>
+        <v>-427</v>
       </c>
       <c r="BE70" t="n">
-        <v>-169606</v>
+        <v>-355</v>
       </c>
       <c r="BF70" t="n">
-        <v>-151690</v>
+        <v>-348</v>
       </c>
       <c r="BG70" t="n">
-        <v>-161559.008</v>
+        <v>-1114</v>
       </c>
       <c r="BH70" t="n">
         <v>-164</v>
@@ -13796,31 +13796,31 @@
         <v>46886</v>
       </c>
       <c r="AY74" t="n">
-        <v>-82406</v>
+        <v>83836.96799999999</v>
       </c>
       <c r="AZ74" t="n">
-        <v>186396</v>
+        <v>70430</v>
       </c>
       <c r="BA74" t="n">
-        <v>-239511.008</v>
+        <v>126711</v>
       </c>
       <c r="BB74" t="n">
-        <v>-6361</v>
+        <v>67520</v>
       </c>
       <c r="BC74" t="n">
-        <v>-103903</v>
+        <v>100207</v>
       </c>
       <c r="BD74" t="n">
-        <v>306499.008</v>
+        <v>88045</v>
       </c>
       <c r="BE74" t="n">
-        <v>-194175.008</v>
+        <v>72423</v>
       </c>
       <c r="BF74" t="n">
-        <v>-2668</v>
+        <v>75948</v>
       </c>
       <c r="BG74" t="n">
-        <v>-82739</v>
+        <v>74656.992</v>
       </c>
       <c r="BH74" t="n">
         <v>76073</v>
@@ -13983,31 +13983,31 @@
         <v>-19990</v>
       </c>
       <c r="AY75" t="n">
-        <v>-73</v>
+        <v>-6398.032</v>
       </c>
       <c r="AZ75" t="n">
-        <v>19096</v>
+        <v>-16844</v>
       </c>
       <c r="BA75" t="n">
-        <v>-484</v>
+        <v>-18151</v>
       </c>
       <c r="BB75" t="n">
-        <v>389</v>
+        <v>-17070</v>
       </c>
       <c r="BC75" t="n">
-        <v>0</v>
+        <v>-21654</v>
       </c>
       <c r="BD75" t="n">
-        <v>-43</v>
+        <v>-20419</v>
       </c>
       <c r="BE75" t="n">
-        <v>-10</v>
+        <v>-17712</v>
       </c>
       <c r="BF75" t="n">
-        <v>-357</v>
+        <v>-17638</v>
       </c>
       <c r="BG75" t="n">
-        <v>-2500</v>
+        <v>-8667</v>
       </c>
       <c r="BH75" t="n">
         <v>-18501</v>
@@ -14170,31 +14170,31 @@
         <v>648</v>
       </c>
       <c r="AY76" t="n">
-        <v>326383.008</v>
+        <v>-1687</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-51079</v>
+        <v>4</v>
       </c>
       <c r="BA76" t="n">
-        <v>87265</v>
+        <v>-16752</v>
       </c>
       <c r="BB76" t="n">
-        <v>8071</v>
+        <v>-78</v>
       </c>
       <c r="BC76" t="n">
-        <v>42510</v>
+        <v>-247</v>
       </c>
       <c r="BD76" t="n">
-        <v>-93603</v>
+        <v>309</v>
       </c>
       <c r="BE76" t="n">
-        <v>67838</v>
+        <v>144</v>
       </c>
       <c r="BF76" t="n">
-        <v>7249</v>
+        <v>421</v>
       </c>
       <c r="BG76" t="n">
-        <v>41017</v>
+        <v>649</v>
       </c>
       <c r="BH76" t="n">
         <v>-143</v>
@@ -14507,31 +14507,31 @@
         <v>-10786</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>-15539</v>
       </c>
       <c r="AZ79" t="n">
-        <v>-1</v>
+        <v>-14546</v>
       </c>
       <c r="BA79" t="n">
-        <v>6</v>
+        <v>-31284</v>
       </c>
       <c r="BB79" t="n">
-        <v>-3</v>
+        <v>-14771</v>
       </c>
       <c r="BC79" t="n">
-        <v>-3</v>
+        <v>-1110</v>
       </c>
       <c r="BD79" t="n">
-        <v>2</v>
+        <v>-12467</v>
       </c>
       <c r="BE79" t="n">
-        <v>2</v>
+        <v>-12333</v>
       </c>
       <c r="BF79" t="n">
-        <v>0</v>
+        <v>-13342</v>
       </c>
       <c r="BG79" t="n">
-        <v>-12</v>
+        <v>-13371</v>
       </c>
       <c r="BH79" t="n">
         <v>-11087</v>
@@ -14694,31 +14694,31 @@
         <v>16758</v>
       </c>
       <c r="AY80" t="n">
-        <v>243904</v>
+        <v>60212.896</v>
       </c>
       <c r="AZ80" t="n">
-        <v>154412</v>
+        <v>39044</v>
       </c>
       <c r="BA80" t="n">
-        <v>-152724</v>
+        <v>60524</v>
       </c>
       <c r="BB80" t="n">
-        <v>2096</v>
+        <v>35601</v>
       </c>
       <c r="BC80" t="n">
-        <v>-61396</v>
+        <v>61173</v>
       </c>
       <c r="BD80" t="n">
-        <v>212855.008</v>
+        <v>52376</v>
       </c>
       <c r="BE80" t="n">
-        <v>-126345</v>
+        <v>39276</v>
       </c>
       <c r="BF80" t="n">
-        <v>4224</v>
+        <v>41980</v>
       </c>
       <c r="BG80" t="n">
-        <v>-44234</v>
+        <v>49878</v>
       </c>
       <c r="BH80" t="n">
         <v>43503</v>
